--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56504.56538158867</v>
+        <v>53802.91747905337</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>6.396723986041656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
-        <v>158.2964914343831</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>68.60038183882816</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W3" t="n">
-        <v>47.60797832237462</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>13.78951976435046</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>16.63119701740678</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>14.77542620315836</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>93.21114789495013</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.98018009431793</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.9158911817642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>248.3095083740551</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>11.83088445038201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731748</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>308.6177753751913</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>115.4636669992918</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436603</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.3450364528294</v>
+        <v>30.34503645282975</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
         <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.6833747202046</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>42.51943180288724</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.89051046332438</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.28373380872588</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>152.2375473925197</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.36374885140938</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>88.27904555816902</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.0940001487612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695614</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7582264966184</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814942</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>173.7797061357537</v>
+        <v>186.9166231085225</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.92847288552876</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>129.7194509233171</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>126.6321535627876</v>
+        <v>21.90286287505312</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.29550035393989</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>41.01175877060113</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917177</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>74.991295292191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>71.79687029691078</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>71.79687029691031</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.825382616191618</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712579</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158253</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158253</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158253</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158253</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="F2" t="n">
-        <v>174.8974928666218</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123837</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487946</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487946</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487946</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487946</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>589.7227393823989</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.1739116400124</v>
+        <v>392.4672266287277</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>392.4672266287277</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>243.5328169674764</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>84.29536196202093</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>84.29536196202093</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487946</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W3" t="n">
-        <v>323.1739116400124</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X3" t="n">
-        <v>323.1739116400124</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.1739116400124</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.9249879919187</v>
+        <v>884.3149544670716</v>
       </c>
       <c r="C5" t="n">
-        <v>806.9249879919187</v>
+        <v>884.3149544670716</v>
       </c>
       <c r="D5" t="n">
-        <v>448.6592893851681</v>
+        <v>884.3149544670716</v>
       </c>
       <c r="E5" t="n">
-        <v>448.6592893851681</v>
+        <v>884.3149544670716</v>
       </c>
       <c r="F5" t="n">
-        <v>441.7137886359646</v>
+        <v>473.3290496774641</v>
       </c>
       <c r="G5" t="n">
-        <v>429.723147379776</v>
+        <v>57.2980043808713</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4568,10 +4568,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4595,22 +4595,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V5" t="n">
-        <v>1583.789775223592</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W5" t="n">
-        <v>1566.99058631712</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.52482805604</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="Y5" t="n">
-        <v>1193.52482805604</v>
+        <v>884.3149544670716</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767.0731087616919</v>
+        <v>781.997781694175</v>
       </c>
       <c r="C6" t="n">
         <v>767.0731087616919</v>
@@ -4671,25 +4671,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1672.074372692123</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1672.074372692123</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U6" t="n">
-        <v>1672.074372692123</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V6" t="n">
-        <v>1436.92226446038</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="W6" t="n">
-        <v>1182.684907732179</v>
+        <v>950.2131187142431</v>
       </c>
       <c r="X6" t="n">
-        <v>974.8334075266457</v>
+        <v>950.2131187142431</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.0731087616919</v>
+        <v>950.2131187142431</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.36919653809306</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809306</v>
+        <v>322.0802549265125</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
@@ -4747,28 +4747,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="U7" t="n">
-        <v>231.1630260146226</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="V7" t="n">
-        <v>231.1630260146226</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="W7" t="n">
-        <v>231.1630260146226</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="X7" t="n">
-        <v>231.1630260146226</v>
+        <v>491.0164378544193</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.36919653809306</v>
+        <v>491.0164378544193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>683.0170955090634</v>
+        <v>1211.331248587732</v>
       </c>
       <c r="C8" t="n">
-        <v>314.0545785686517</v>
+        <v>1211.331248587732</v>
       </c>
       <c r="D8" t="n">
-        <v>63.23689334233342</v>
+        <v>853.0655499809816</v>
       </c>
       <c r="E8" t="n">
-        <v>63.23689334233342</v>
+        <v>467.2772973827373</v>
       </c>
       <c r="F8" t="n">
-        <v>56.29139259312995</v>
+        <v>56.2913925931297</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941076</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941076</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941076</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="J8" t="n">
-        <v>156.82805594203</v>
+        <v>156.8280559420291</v>
       </c>
       <c r="K8" t="n">
-        <v>376.155505400225</v>
+        <v>376.1555054002228</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707953</v>
+        <v>685.1523625707914</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937552</v>
+        <v>1060.640340937546</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733711</v>
+        <v>1446.817915733704</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659514</v>
+        <v>1798.139187659504</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284339</v>
+        <v>2063.482764284328</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228522</v>
+        <v>2214.57199322851</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970538</v>
+        <v>2217.050212970525</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970538</v>
+        <v>2085.832821179428</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290563</v>
+        <v>1875.835030499454</v>
       </c>
       <c r="U8" t="n">
-        <v>1753.44847818687</v>
+        <v>1875.835030499454</v>
       </c>
       <c r="V8" t="n">
-        <v>1422.385590843299</v>
+        <v>1875.835030499454</v>
       </c>
       <c r="W8" t="n">
-        <v>1069.616935573185</v>
+        <v>1523.066375229339</v>
       </c>
       <c r="X8" t="n">
-        <v>1069.616935573185</v>
+        <v>1211.331248587732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1069.616935573185</v>
+        <v>1211.331248587732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>564.3901983944588</v>
+        <v>486.9674738106212</v>
       </c>
       <c r="C9" t="n">
-        <v>447.7602317285075</v>
+        <v>486.9674738106212</v>
       </c>
       <c r="D9" t="n">
-        <v>298.8258220672562</v>
+        <v>486.9674738106212</v>
       </c>
       <c r="E9" t="n">
-        <v>139.5883670618007</v>
+        <v>327.7300188051657</v>
       </c>
       <c r="F9" t="n">
-        <v>139.5883670618007</v>
+        <v>181.1954608320507</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618007</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941076</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941076</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113545</v>
+        <v>92.51967467113468</v>
       </c>
       <c r="K9" t="n">
-        <v>253.019520915417</v>
+        <v>253.0195209154153</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572556</v>
+        <v>515.1539122572527</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449757</v>
+        <v>840.4092510449714</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738688</v>
+        <v>1188.681775738682</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074217</v>
+        <v>1485.06330007421</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566947</v>
+        <v>1703.602536566939</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257645</v>
+        <v>1799.771032257636</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.11948028509</v>
+        <v>1769.11948028508</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058093</v>
+        <v>1769.11948028508</v>
       </c>
       <c r="T9" t="n">
-        <v>1630.554864058093</v>
+        <v>1574.495968838233</v>
       </c>
       <c r="U9" t="n">
-        <v>1402.454691113215</v>
+        <v>1346.395795893355</v>
       </c>
       <c r="V9" t="n">
-        <v>1402.454691113215</v>
+        <v>1156.81662950931</v>
       </c>
       <c r="W9" t="n">
-        <v>1148.217334385014</v>
+        <v>902.579272781108</v>
       </c>
       <c r="X9" t="n">
-        <v>940.3658341794808</v>
+        <v>694.7277725755752</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.6055354145269</v>
+        <v>486.9674738106212</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.28992527242818</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="C10" t="n">
-        <v>87.28992527242818</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="D10" t="n">
-        <v>87.28992527242818</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941076</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941076</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941076</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941076</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941076</v>
+        <v>61.40212593953613</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941076</v>
+        <v>44.3410042594105</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016782</v>
+        <v>95.74470838016703</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810368</v>
+        <v>191.4295496810353</v>
       </c>
       <c r="M10" t="n">
-        <v>295.574081842267</v>
+        <v>295.5740818422648</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091261</v>
+        <v>405.0998157091231</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712744</v>
+        <v>485.9514692712708</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139756</v>
+        <v>536.0720553139714</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139756</v>
+        <v>514.7610849089305</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139756</v>
+        <v>514.7610849089305</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139756</v>
+        <v>514.7610849089305</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139756</v>
+        <v>514.7610849089305</v>
       </c>
       <c r="U10" t="n">
-        <v>536.0720553139756</v>
+        <v>514.7610849089305</v>
       </c>
       <c r="V10" t="n">
-        <v>536.0720553139756</v>
+        <v>514.7610849089305</v>
       </c>
       <c r="W10" t="n">
-        <v>536.0720553139756</v>
+        <v>471.0401416677932</v>
       </c>
       <c r="X10" t="n">
-        <v>308.0825044159583</v>
+        <v>243.0505907697759</v>
       </c>
       <c r="Y10" t="n">
-        <v>87.28992527242818</v>
+        <v>243.0505907697759</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.75807812654</v>
+        <v>2169.931103806273</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.795561186129</v>
+        <v>1800.968586865862</v>
       </c>
       <c r="D11" t="n">
-        <v>927.5298625793782</v>
+        <v>1442.702888259112</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>1056.914635660868</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>645.9287308712601</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>231.3129663124055</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656962</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="T11" t="n">
-        <v>3742.288492919711</v>
+        <v>3672.904689377401</v>
       </c>
       <c r="U11" t="n">
-        <v>3488.79455104124</v>
+        <v>3672.904689377401</v>
       </c>
       <c r="V11" t="n">
-        <v>3157.731663697668</v>
+        <v>3672.904689377401</v>
       </c>
       <c r="W11" t="n">
-        <v>2804.963008427554</v>
+        <v>3320.136034107287</v>
       </c>
       <c r="X11" t="n">
-        <v>2431.497250166474</v>
+        <v>2946.670275846207</v>
       </c>
       <c r="Y11" t="n">
-        <v>2041.357918190662</v>
+        <v>2556.530943870395</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="K12" t="n">
-        <v>77.53766591592071</v>
+        <v>84.53144813504287</v>
       </c>
       <c r="L12" t="n">
-        <v>496.2347065738721</v>
+        <v>503.2284887929944</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.1912725304</v>
+        <v>1011.185054749523</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.00058223161</v>
+        <v>1546.994364450733</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.941626564133</v>
+        <v>2014.935408783255</v>
       </c>
       <c r="P12" t="n">
-        <v>2356.438638438442</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
-        <v>2544.650348868987</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>1094.452541682644</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>925.5163587547369</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>775.3997193424011</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>627.4866257600081</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>480.5966782620978</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>313.098695073286</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592071</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893319</v>
+        <v>2048.192215653748</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.64459384277</v>
+        <v>2048.192215653748</v>
       </c>
       <c r="V13" t="n">
-        <v>1358.64459384277</v>
+        <v>1793.507727447861</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.64459384277</v>
+        <v>1504.090557410901</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.655042944752</v>
+        <v>1276.101006512883</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.287366026812</v>
+        <v>1276.101006512883</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,49 +5276,49 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>924.8344286397185</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.432392194325</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5437,16 +5437,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>372.4964262156759</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>867.8220324314346</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1801.926023807727</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1547.24153560184</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.824365564879</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.834814666861</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.0422355233313</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,16 +5835,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474264</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9565346495161</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2315.93333517287</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2096.331870195811</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1263.154985297161</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>814.3728552556132</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.583792693556</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656491</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5309703533134</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="E25" t="n">
-        <v>368.6178767709202</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="F25" t="n">
-        <v>221.7279292730099</v>
+        <v>198.0274703142533</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856865</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577796</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159262</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138416</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3584617859348</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>597.241822373599</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3287287912059</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4387812932955</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2426820081751</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138416</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138416</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413022</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310022</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1127.193030315072</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.4004511715419</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="35">
@@ -6914,37 +6914,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244855</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420924</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>333.5348535420924</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3387542569727</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>166.3387542569727</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557276</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278207</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7330,19 +7330,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859673</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474264</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E43" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7631,64 +7631,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038341</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.27452942083</v>
+        <v>2336.956424518384</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.673064443771</v>
+        <v>2117.354959541325</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545121</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471038</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>137.739955946855</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
-        <v>167.5750715030398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.403373681735</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.49065320333355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.37941682720964</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>32.89260457060055</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>112.4047682534905</v>
+        <v>99.26785128072169</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>144.5956654067401</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>51.30683507832748</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>38.89198472948169</v>
+        <v>143.6212754172157</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.31997266427247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.28295407562273</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>202.6501519448733</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.468966021654737</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6085800303785</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.54986409393004</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038668</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>985929.3477888828</v>
+        <v>985929.3477888829</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923207</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166183</v>
+        <v>311350.4288166186</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.304868253</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861778</v>
+        <v>392510.2442861772</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264422</v>
+        <v>12262.85603264098</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.956767448</v>
+        <v>395943.9567674514</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704294</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487779</v>
+        <v>91259.95686487768</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349950204</v>
+        <v>3074.447349949392</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931114</v>
+        <v>103409.2608931122</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202371</v>
+        <v>49839.57413202366</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607415</v>
+        <v>170817.8827607424</v>
       </c>
       <c r="E4" t="n">
         <v>15941.16541224543</v>
@@ -26430,34 +26430,34 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189196</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.7544440418</v>
+        <v>86153.75444404155</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577936.5155742683</v>
+        <v>-577936.5155742688</v>
       </c>
       <c r="C6" t="n">
-        <v>-302969.5640386273</v>
+        <v>-302969.5640386267</v>
       </c>
       <c r="D6" t="n">
-        <v>79708.25895489317</v>
+        <v>79708.25895489575</v>
       </c>
       <c r="E6" t="n">
-        <v>-185672.1784304608</v>
+        <v>-185893.3097444385</v>
       </c>
       <c r="F6" t="n">
-        <v>36559.9223020245</v>
+        <v>36525.18437658892</v>
       </c>
       <c r="G6" t="n">
-        <v>225868.1910724538</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="H6" t="n">
-        <v>225868.1910724538</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="I6" t="n">
-        <v>225868.1910724536</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="J6" t="n">
-        <v>176803.2463439088</v>
+        <v>176768.5084184729</v>
       </c>
       <c r="K6" t="n">
-        <v>134608.2342075758</v>
+        <v>134573.4962821403</v>
       </c>
       <c r="L6" t="n">
-        <v>222793.7437225032</v>
+        <v>222759.0057970685</v>
       </c>
       <c r="M6" t="n">
-        <v>122458.9301793424</v>
+        <v>122424.1922539056</v>
       </c>
       <c r="N6" t="n">
-        <v>176028.6169404298</v>
+        <v>175993.8790149941</v>
       </c>
       <c r="O6" t="n">
-        <v>225868.1910724535</v>
+        <v>225833.4531470176</v>
       </c>
       <c r="P6" t="n">
-        <v>225868.1910724537</v>
+        <v>225833.4531470179</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573225</v>
+        <v>863.6234498573199</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426345</v>
+        <v>554.2625532426312</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490089</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247797</v>
+        <v>305.2407236247792</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319638374</v>
+        <v>9.912785319635759</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576277</v>
+        <v>338.6177873576305</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267238</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.589369559843</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647117</v>
+        <v>12.14759651646796</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063745</v>
+        <v>414.958270706378</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647117</v>
+        <v>12.14759651646796</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063745</v>
+        <v>414.958270706378</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647117</v>
+        <v>12.14759651646796</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063745</v>
+        <v>414.958270706378</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.4874641506394</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971608</v>
+        <v>376.3371176774389</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G2" t="n">
-        <v>254.801341795675</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871053</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>67.56340752694717</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377112</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W3" t="n">
-        <v>204.087004838545</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2177245773853</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821562</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.5372849918326</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>332.6097717000062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>157.9330727851574</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>44.3638659983491</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>79.09267117132066</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
@@ -27828,7 +27828,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.66876217033058</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>106.3735332466279</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163649</v>
+        <v>303.9186869163651</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151371</v>
+        <v>76.62727429151411</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>61.11332530327775</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>57.24483198902395</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433978</v>
+        <v>35.56536036433998</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323793</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.1172124292207</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>103.9145308436819</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332405</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099014</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.269103131361</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2392645278651</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753053</v>
+        <v>3.471853064753042</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940221</v>
+        <v>35.5561151994021</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788922</v>
+        <v>133.8486152788918</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545846</v>
+        <v>294.6691890545838</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855815</v>
+        <v>441.6327292855801</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160179</v>
+        <v>547.8844525160162</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563199</v>
+        <v>609.6270194563181</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765495</v>
+        <v>619.4914219765477</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639114</v>
+        <v>584.9681830639096</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278203</v>
+        <v>499.2568105278188</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463515</v>
+        <v>374.9210726463504</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787941</v>
+        <v>218.0887900787935</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306026</v>
+        <v>79.11485171306003</v>
       </c>
       <c r="T8" t="n">
-        <v>15.1980367909565</v>
+        <v>15.19803679095645</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802442</v>
+        <v>0.2777482451802433</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296882</v>
+        <v>1.857605156296877</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213042</v>
+        <v>17.94055506213036</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566022</v>
+        <v>63.95701963566002</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148735</v>
+        <v>175.5029503148729</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867646</v>
+        <v>299.9624957867637</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564788</v>
+        <v>403.3365932564776</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722407</v>
+        <v>470.6747801722393</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668808</v>
+        <v>483.1321410668794</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510394</v>
+        <v>441.9715215510381</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423407</v>
+        <v>354.7211109423396</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230898</v>
+        <v>237.1216687230891</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111345</v>
+        <v>115.3344675111342</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911093</v>
+        <v>34.50420103911082</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442256</v>
+        <v>7.487452362442233</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458476</v>
+        <v>0.1222108655458472</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037794</v>
+        <v>1.55735376203779</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066331</v>
+        <v>13.84629072066327</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291841</v>
+        <v>46.83387495291827</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760721</v>
+        <v>110.1049109760717</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258455</v>
+        <v>180.936191625845</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306009</v>
+        <v>231.5360311306002</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801608</v>
+        <v>244.1222810801601</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762019</v>
+        <v>238.3175988762012</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833058</v>
+        <v>220.1248753833051</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377346</v>
+        <v>188.3548586377341</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284557</v>
+        <v>130.4071409284553</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580845</v>
+        <v>70.02428824580824</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387683</v>
+        <v>27.14042874387675</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343302</v>
+        <v>6.654147892343282</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842525</v>
+        <v>0.084946568838425</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>144.9058654583207</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>485.991591125753</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
         <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>160.5559146605174</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,25 +32072,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>688.4205792103718</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>417.5509096439922</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>165.2255134509763</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,19 +33263,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>144.2373595085334</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256099</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278984</v>
+        <v>113.6232845278975</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406009</v>
+        <v>221.5428782405996</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460306</v>
+        <v>312.1180375460289</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290472</v>
+        <v>379.2807862290454</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799586</v>
+        <v>390.0783583799568</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422246</v>
+        <v>354.8699716422228</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725507</v>
+        <v>268.0238147725493</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.615382771902</v>
+        <v>152.6153827719009</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264662024</v>
+        <v>2.503252264661342</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820677</v>
+        <v>48.66532364820625</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124056</v>
+        <v>162.1210568124047</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766046</v>
+        <v>264.7822134766034</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502224</v>
+        <v>328.5407462502209</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835475</v>
+        <v>351.7904289835461</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065949</v>
+        <v>299.3752771065936</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280104</v>
+        <v>220.7467035280093</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706827</v>
+        <v>97.13989463706756</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345531016</v>
+        <v>51.92293345530962</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936258</v>
+        <v>96.65135484936189</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325557</v>
+        <v>105.196497132555</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109687</v>
+        <v>110.632054410968</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146302</v>
+        <v>81.66833693146233</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858701</v>
+        <v>50.62685458858644</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.064426483961742</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
         <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>352.0171837114228</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87641069655342</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>545.8243347659273</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>279.7094706696332</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>330.3773834724256</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>31.25110603664601</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>6.395920534174421</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112796</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
